--- a/data/trans_dic/P19C10_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Dificultad-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002860040860252961</v>
+        <v>0.002854046883142377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003265006291033695</v>
+        <v>0.002951359889011314</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01983746275047715</v>
+        <v>0.02011555741121166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01853407371877102</v>
+        <v>0.01813986781467117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01506665040701885</v>
+        <v>0.01425672211930104</v>
       </c>
     </row>
     <row r="7">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002769934302121063</v>
+        <v>0.002806052227768315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002215223885903258</v>
+        <v>0.002087316272385928</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008451791589279977</v>
+        <v>0.009265481344180657</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0102165708675493</v>
+        <v>0.01015012301011594</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007432737890792884</v>
+        <v>0.007756411864070757</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.0030669744569647</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.006270677480384913</v>
+        <v>0.006270677480384914</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.004672867526895225</v>
+        <v>0.004672867526895227</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002790273830305637</v>
+        <v>0.003011045837189114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002224792911370435</v>
+        <v>0.002485081537571253</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01090874603361205</v>
+        <v>0.01090185501624636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01227492076684009</v>
+        <v>0.01299034564804329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009058658873989269</v>
+        <v>0.009211387294971571</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0005343675882048581</v>
+        <v>0.0005166780736635514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002363593378065805</v>
+        <v>0.002492226466318935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002047845119460232</v>
+        <v>0.002009899110567597</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008930063885021737</v>
+        <v>0.008189087330812172</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01188135351247431</v>
+        <v>0.01227535602089151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007691674568867829</v>
+        <v>0.008097682559613654</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.006210156461636386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.004762712231524674</v>
+        <v>0.004762712231524675</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001545680814342594</v>
+        <v>0.001489259429046378</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004296656201293507</v>
+        <v>0.004242833929736198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003457940927168615</v>
+        <v>0.00330995445106502</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.006406102730099943</v>
+        <v>0.005833188763662287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009017689970677591</v>
+        <v>0.008708007733289468</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006746261506048339</v>
+        <v>0.006732210066905452</v>
       </c>
     </row>
     <row r="19">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3400</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8972</v>
+        <v>9098</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10920</v>
+        <v>10688</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15692</v>
+        <v>14848</v>
       </c>
     </row>
     <row r="8">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3011</v>
+        <v>3051</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4449</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7786</v>
+        <v>8535</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11107</v>
+        <v>11034</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14927</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2874</v>
+        <v>3102</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4572</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11181</v>
+        <v>11174</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12644</v>
+        <v>13381</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18616</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2082</v>
+        <v>2195</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3749</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8484</v>
+        <v>7780</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10464</v>
+        <v>10811</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14081</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5176</v>
+        <v>4987</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15413</v>
+        <v>15220</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23983</v>
+        <v>22956</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21450</v>
+        <v>19532</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32348</v>
+        <v>31237</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46789</v>
+        <v>46692</v>
       </c>
     </row>
     <row r="24">
